--- a/exceldata/cucumberExcelData.xlsx
+++ b/exceldata/cucumberExcelData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
   <si>
     <t>Title</t>
   </si>
@@ -36,6 +36,306 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>Course Levels</t>
+  </si>
+  <si>
+    <t>Languages and Course count</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>English (1,238)</t>
+  </si>
+  <si>
+    <t>Spanish (838)</t>
+  </si>
+  <si>
+    <t>Arabic (757)</t>
+  </si>
+  <si>
+    <t>French (727)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (705)</t>
+  </si>
+  <si>
+    <t>Japanese (703)</t>
+  </si>
+  <si>
+    <t>German (695)</t>
+  </si>
+  <si>
+    <t>Korean (694)</t>
+  </si>
+  <si>
+    <t>Indonesian (692)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (679)</t>
+  </si>
+  <si>
+    <t>Ukrainian (674)</t>
+  </si>
+  <si>
+    <t>Hindi (672)</t>
+  </si>
+  <si>
+    <t>Italian (671)</t>
+  </si>
+  <si>
+    <t>Swedish (670)</t>
+  </si>
+  <si>
+    <t>Dutch (669)</t>
+  </si>
+  <si>
+    <t>Greek (669)</t>
+  </si>
+  <si>
+    <t>Polish (669)</t>
+  </si>
+  <si>
+    <t>Thai (669)</t>
+  </si>
+  <si>
+    <t>Turkish (669)</t>
+  </si>
+  <si>
+    <t>Russian (648)</t>
+  </si>
+  <si>
+    <t>Kazakh (612)</t>
+  </si>
+  <si>
+    <t>Hungarian (453)</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional) (5)</t>
+  </si>
+  <si>
+    <t>Hebrew (2)</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>English (1,060)</t>
+  </si>
+  <si>
+    <t>Spanish (644)</t>
+  </si>
+  <si>
+    <t>Arabic (599)</t>
+  </si>
+  <si>
+    <t>French (599)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (589)</t>
+  </si>
+  <si>
+    <t>Japanese (588)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (587)</t>
+  </si>
+  <si>
+    <t>Korean (581)</t>
+  </si>
+  <si>
+    <t>German (576)</t>
+  </si>
+  <si>
+    <t>Hindi (573)</t>
+  </si>
+  <si>
+    <t>Indonesian (573)</t>
+  </si>
+  <si>
+    <t>Italian (573)</t>
+  </si>
+  <si>
+    <t>Dutch (572)</t>
+  </si>
+  <si>
+    <t>Greek (572)</t>
+  </si>
+  <si>
+    <t>Polish (572)</t>
+  </si>
+  <si>
+    <t>Swedish (572)</t>
+  </si>
+  <si>
+    <t>Thai (572)</t>
+  </si>
+  <si>
+    <t>Turkish (572)</t>
+  </si>
+  <si>
+    <t>Ukrainian (572)</t>
+  </si>
+  <si>
+    <t>Russian (553)</t>
+  </si>
+  <si>
+    <t>Kazakh (523)</t>
+  </si>
+  <si>
+    <t>Hungarian (407)</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional) (3)</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>English (105)</t>
+  </si>
+  <si>
+    <t>Spanish (57)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (52)</t>
+  </si>
+  <si>
+    <t>Korean (52)</t>
+  </si>
+  <si>
+    <t>French (51)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (51)</t>
+  </si>
+  <si>
+    <t>Arabic (49)</t>
+  </si>
+  <si>
+    <t>Dutch (49)</t>
+  </si>
+  <si>
+    <t>German (49)</t>
+  </si>
+  <si>
+    <t>Greek (49)</t>
+  </si>
+  <si>
+    <t>Hindi (49)</t>
+  </si>
+  <si>
+    <t>Indonesian (49)</t>
+  </si>
+  <si>
+    <t>Italian (49)</t>
+  </si>
+  <si>
+    <t>Japanese (49)</t>
+  </si>
+  <si>
+    <t>Kazakh (49)</t>
+  </si>
+  <si>
+    <t>Polish (49)</t>
+  </si>
+  <si>
+    <t>Russian (49)</t>
+  </si>
+  <si>
+    <t>Swedish (49)</t>
+  </si>
+  <si>
+    <t>Thai (49)</t>
+  </si>
+  <si>
+    <t>Turkish (49)</t>
+  </si>
+  <si>
+    <t>Ukrainian (49)</t>
+  </si>
+  <si>
+    <t>Hungarian (41)</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional) (1)</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Spanish (215)</t>
+  </si>
+  <si>
+    <t>Arabic (196)</t>
+  </si>
+  <si>
+    <t>English (196)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (189)</t>
+  </si>
+  <si>
+    <t>Russian (188)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (187)</t>
+  </si>
+  <si>
+    <t>French (186)</t>
+  </si>
+  <si>
+    <t>Korean (185)</t>
+  </si>
+  <si>
+    <t>German (184)</t>
+  </si>
+  <si>
+    <t>Dutch (183)</t>
+  </si>
+  <si>
+    <t>Greek (183)</t>
+  </si>
+  <si>
+    <t>Hindi (183)</t>
+  </si>
+  <si>
+    <t>Indonesian (183)</t>
+  </si>
+  <si>
+    <t>Italian (183)</t>
+  </si>
+  <si>
+    <t>Japanese (183)</t>
+  </si>
+  <si>
+    <t>Polish (183)</t>
+  </si>
+  <si>
+    <t>Swedish (183)</t>
+  </si>
+  <si>
+    <t>Thai (183)</t>
+  </si>
+  <si>
+    <t>Turkish (183)</t>
+  </si>
+  <si>
+    <t>Ukrainian (183)</t>
+  </si>
+  <si>
+    <t>Kazakh (182)</t>
+  </si>
+  <si>
+    <t>Hungarian (141)</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional) (2)</t>
+  </si>
+  <si>
+    <t>Portuguese (1)</t>
   </si>
   <si>
     <t>Error Message</t>
@@ -105,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true"/>
@@ -114,6 +414,306 @@
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
@@ -158,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -205,30 +805,520 @@
       <c r="A5" t="s" s="10">
         <v>8</v>
       </c>
+      <c r="B5" t="s" s="11">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="11">
-        <v>9</v>
+      <c r="A6" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="12">
-        <v>8</v>
+      <c r="B8" t="s" s="15">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="13">
-        <v>10</v>
+      <c r="B9" t="s" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="17">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="14">
-        <v>8</v>
+      <c r="B11" t="s" s="18">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="15">
-        <v>11</v>
+      <c r="B12" t="s" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s" s="25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s" s="31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s" s="33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s" s="35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s" s="36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="37">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s" s="38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s" s="39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s" s="40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s" s="41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s" s="43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s" s="44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s" s="45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s" s="46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s" s="47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s" s="48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s" s="49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s" s="50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s" s="51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s" s="52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s" s="53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s" s="54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s" s="55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s" s="56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s" s="57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s" s="58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s" s="59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s" s="60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="61">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s" s="62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s" s="63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s" s="64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s" s="65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s" s="66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s" s="67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s" s="68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s" s="69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s" s="70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s" s="71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s" s="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s" s="74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s" s="75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s" s="76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s" s="77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s" s="78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s" s="79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s" s="80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s" s="81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s" s="82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s" s="83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s" s="84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="85">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s" s="86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s" s="87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s" s="88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s" s="89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s" s="90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s" s="91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s" s="92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s" s="93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s" s="94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s" s="95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s" s="96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s" s="97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s" s="98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s" s="99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s" s="100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s" s="101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s" s="102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s" s="103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s" s="104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s" s="105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s" s="106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s" s="107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s" s="108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s" s="109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="112">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="113">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="114">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="115">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
